--- a/arsel/data_ar/ExportForm/CheckCellValue/DSB3RORv1_20151113_Arbitrary.xlsx
+++ b/arsel/data_ar/ExportForm/CheckCellValue/DSB3RORv1_20151113_Arbitrary.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>SheetName</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>4.0</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>345435.55555</t>
@@ -121,8 +118,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -433,7 +443,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,15 +481,11 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -488,15 +494,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -505,15 +507,11 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -522,15 +520,11 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -539,15 +533,11 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -556,15 +546,11 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -573,15 +559,11 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
